--- a/biology/Zoologie/Colombier_de_la_Ribière/Colombier_de_la_Ribière.xlsx
+++ b/biology/Zoologie/Colombier_de_la_Ribière/Colombier_de_la_Ribière.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Colombier_de_la_Ribi%C3%A8re</t>
+          <t>Colombier_de_la_Ribière</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La colombier de la Ribière est un colombier situé à Flavignac, en France[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La colombier de la Ribière est un colombier situé à Flavignac, en France.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Colombier_de_la_Ribi%C3%A8re</t>
+          <t>Colombier_de_la_Ribière</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le colombier est un édifice en forme de tour, couvert en lauzes sans charpente, ce qui est assez rare dans la région. La toiture repose directement sur la voûte en briques. Au sommet, un lanternon protège la fuie.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Colombier_de_la_Ribi%C3%A8re</t>
+          <t>Colombier_de_la_Ribière</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le colombier est situé dans le département français de la Haute-Vienne, sur la commune de Flavignac, au lieu-dit de la Ribière.
 </t>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Colombier_de_la_Ribi%C3%A8re</t>
+          <t>Colombier_de_la_Ribière</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,10 +589,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le colombier date probablement des XVe et XVIe siècles. Il accompagne à l'origine le château de la Ribière, détruit dans la deuxième moitié du XVIIIe siècle.
-L'édifice est inscrit au titre des monuments historiques le 18 mars 2004[1].
+L'édifice est inscrit au titre des monuments historiques le 18 mars 2004.
 </t>
         </is>
       </c>
